--- a/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
+++ b/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Research\XM777\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Greg Sanders\Documents\Development\R-scripts-and-data\FOIA SAR data\LW155 M777\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="10560" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="10560" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="All Years_vol2.summary" sheetId="1" r:id="rId1"/>
-    <sheet name="1999_PMC_BOOK.summary " sheetId="2" r:id="rId2"/>
+    <sheet name="1999_PMC_BOOK.summary" sheetId="2" r:id="rId2"/>
     <sheet name="All Years_RDTEN_BA_4" sheetId="4" r:id="rId3"/>
     <sheet name="All Years_wtcv" sheetId="5" r:id="rId4"/>
-    <sheet name="Marine Corps Data" sheetId="7" r:id="rId5"/>
+    <sheet name="All Years_N_BA4" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2851,207 +2851,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C4" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11">
         <v>35827</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
       <c r="G5">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="H5">
         <v>120</v>
       </c>
       <c r="I5">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="J5">
-        <v>120</v>
-      </c>
-      <c r="K5">
-        <v>96</v>
-      </c>
-      <c r="L5">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>86.3</v>
+      </c>
       <c r="F6">
-        <v>10</v>
+        <v>116.8</v>
       </c>
       <c r="G6">
-        <v>86.3</v>
+        <v>121.6</v>
       </c>
       <c r="H6">
-        <v>116.8</v>
+        <v>117.7</v>
       </c>
       <c r="I6">
-        <v>121.6</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>117.7</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
         <v>552.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>86.3</v>
+      </c>
       <c r="F9">
-        <v>10</v>
+        <v>116.8</v>
       </c>
       <c r="G9">
-        <v>86.3</v>
+        <v>121.6</v>
       </c>
       <c r="H9">
-        <v>116.8</v>
+        <v>117.7</v>
       </c>
       <c r="I9">
-        <v>121.6</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>117.7</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
         <v>552.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
+      <c r="F10">
+        <v>3.4</v>
+      </c>
+      <c r="G10">
+        <v>5.9</v>
+      </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>2.6</v>
-      </c>
-      <c r="L10">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>86.3</v>
+      </c>
       <c r="F11">
-        <v>10</v>
+        <v>120.2</v>
       </c>
       <c r="G11">
-        <v>86.3</v>
+        <v>127.5</v>
       </c>
       <c r="H11">
-        <v>120.2</v>
+        <v>122.7</v>
       </c>
       <c r="I11">
-        <v>127.5</v>
+        <v>102.6</v>
       </c>
       <c r="J11">
-        <v>122.7</v>
-      </c>
-      <c r="K11">
-        <v>102.6</v>
-      </c>
-      <c r="L11">
         <v>569.29999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="L12">
+      <c r="J12">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3060,12 +3066,6 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3077,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,460 +3112,460 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>32332</v>
+      </c>
+      <c r="C4" s="4">
+        <v>23237</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12105</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4">
-        <v>32332</v>
+        <v>569</v>
       </c>
       <c r="C5" s="4">
-        <v>23237</v>
+        <v>3880</v>
       </c>
       <c r="D5" s="4">
-        <v>12105</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4">
+        <v>31763</v>
+      </c>
+      <c r="C6" s="4">
+        <v>27117</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>11105</v>
+      </c>
+      <c r="F9">
+        <v>90055</v>
+      </c>
+      <c r="G9">
+        <v>197065</v>
+      </c>
+      <c r="H9">
+        <v>142352</v>
+      </c>
+      <c r="I9">
+        <v>238</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>440815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>27.117000000000001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>13.119</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="4">
-        <v>569</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3880</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4">
-        <v>31763</v>
-      </c>
-      <c r="C7" s="4">
-        <v>27117</v>
-      </c>
-      <c r="D7" s="4">
-        <v>13119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>11105</v>
-      </c>
-      <c r="F10">
-        <v>90055</v>
-      </c>
-      <c r="G10">
-        <v>197065</v>
-      </c>
-      <c r="H10">
-        <v>142352</v>
-      </c>
-      <c r="I10">
-        <v>238</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>440815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4">
-        <v>27.117000000000001</v>
-      </c>
-      <c r="C16" s="4">
-        <v>13.119</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.121</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.29699999999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.151</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4">
-        <v>9.4E-2</v>
+        <v>26.344999999999999</v>
       </c>
       <c r="C20" s="4">
-        <v>0.121</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.151</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <v>18.5</v>
+        <v>18.202999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4">
-        <v>26.344999999999999</v>
-      </c>
-      <c r="C22" s="4">
-        <v>12.997999999999999</v>
-      </c>
-      <c r="D22" s="4">
-        <v>18.202999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>11.004</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B27">
         <v>11.004</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>62.643000000000001</v>
+      </c>
+      <c r="E27">
+        <v>111.489</v>
+      </c>
+      <c r="F27">
+        <v>179.32499999999999</v>
+      </c>
+      <c r="G27">
+        <v>181.18299999999999</v>
+      </c>
+      <c r="H27">
+        <v>75.363</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>621.00699999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="H30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B29">
-        <v>11.004</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>62.643000000000001</v>
-      </c>
-      <c r="E29">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>62.02</v>
+      </c>
+      <c r="D31">
         <v>111.489</v>
       </c>
-      <c r="F29">
-        <v>179.32499999999999</v>
-      </c>
-      <c r="G29">
-        <v>181.18299999999999</v>
-      </c>
-      <c r="H29">
-        <v>75.363</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>621.00699999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>62.02</v>
-      </c>
-      <c r="D33">
-        <v>111.489</v>
-      </c>
-      <c r="E33">
+      <c r="E31">
         <v>175.54300000000001</v>
       </c>
-      <c r="F33">
+      <c r="F31">
         <v>177.071</v>
       </c>
-      <c r="G33">
+      <c r="G31">
         <v>73.584999999999994</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>599.70799999999997</v>
       </c>
     </row>
@@ -6939,8 +6939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
+++ b/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
@@ -783,10 +783,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3607,12 +3607,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3857,12 +3857,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -4054,12 +4054,12 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -4275,12 +4275,12 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -4553,12 +4553,12 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -4771,12 +4771,12 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -5290,12 +5290,12 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
@@ -5553,12 +5553,12 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
@@ -5798,12 +5798,12 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
@@ -5971,12 +5971,12 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
@@ -6126,12 +6126,12 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
@@ -6314,12 +6314,12 @@
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
@@ -6616,12 +6616,12 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
@@ -6909,13 +6909,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="E94:G94"/>
     <mergeCell ref="H94:J94"/>
@@ -6924,11 +6922,13 @@
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A181:D181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6937,10 +6937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,699 +7527,664 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>201</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>11105</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>90055</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>197065</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>142352</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>238</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>440815</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>37043</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" t="s">
-        <v>199</v>
-      </c>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41">
-        <v>26.344999999999999</v>
-      </c>
-      <c r="C41">
-        <v>12.997999999999999</v>
-      </c>
-      <c r="D41">
-        <v>18.202999999999999</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>57.545999999999999</v>
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>197</v>
+      </c>
+      <c r="B42">
+        <v>26.344999999999999</v>
+      </c>
+      <c r="C42">
+        <v>12.997999999999999</v>
+      </c>
+      <c r="D42">
+        <v>18.202999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>57.545999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H43" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-      <c r="J43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>201</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>11.004</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>37288</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" t="s">
-        <v>85</v>
+        <v>193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50">
-        <v>13.446</v>
-      </c>
-      <c r="C50">
-        <v>13.085000000000001</v>
-      </c>
-      <c r="D50">
-        <v>11.632999999999999</v>
-      </c>
-      <c r="E50">
-        <v>5.97</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>44.134</v>
+        <v>196</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>197</v>
+      </c>
+      <c r="B51">
+        <v>13.446</v>
+      </c>
+      <c r="C51">
+        <v>13.085000000000001</v>
+      </c>
+      <c r="D51">
+        <v>11.632999999999999</v>
+      </c>
+      <c r="E51">
+        <v>5.97</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>44.134</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>201</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>11.004</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>62.643000000000001</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>111.489</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>179.32499999999999</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>181.18299999999999</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>75.363</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>621.00699999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>37653</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>196</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" t="s">
-        <v>198</v>
-      </c>
-      <c r="F59" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" t="s">
-        <v>85</v>
+        <v>193</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B60">
-        <v>14.558</v>
-      </c>
-      <c r="C60">
-        <v>11.367000000000001</v>
-      </c>
-      <c r="D60">
-        <v>5.8280000000000003</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>31.753</v>
+        <v>196</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" t="s">
+        <v>199</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60" t="s">
+        <v>105</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>197</v>
+      </c>
+      <c r="B61">
+        <v>14.558</v>
+      </c>
+      <c r="C61">
+        <v>11.367000000000001</v>
+      </c>
+      <c r="D61">
+        <v>5.8280000000000003</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>31.753</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H62" t="s">
-        <v>104</v>
-      </c>
-      <c r="I62" t="s">
-        <v>105</v>
-      </c>
-      <c r="J62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>201</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>62.02</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>111.489</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>175.54300000000001</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>177.071</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>73.584999999999994</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>599.70799999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
         <v>38018</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>210</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>212</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>32</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>45</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>64</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>65</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H69" t="s">
         <v>104</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
         <v>105</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J69" t="s">
         <v>213</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K69" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69">
-        <v>34</v>
-      </c>
-      <c r="D69">
-        <v>60</v>
-      </c>
-      <c r="E69">
-        <v>97</v>
-      </c>
-      <c r="F69">
-        <v>93</v>
-      </c>
-      <c r="G69">
-        <v>33</v>
-      </c>
-      <c r="K69">
-        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70">
-        <v>3.3</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>63.1</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>106.2</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>175.9</v>
+        <v>97</v>
       </c>
       <c r="F70">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="G70">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K70">
-        <v>609.79999999999995</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>63.1</v>
       </c>
       <c r="D71">
-        <v>6.7</v>
+        <v>106.2</v>
       </c>
       <c r="E71">
-        <v>11.3</v>
+        <v>175.9</v>
       </c>
       <c r="F71">
-        <v>10.8</v>
+        <v>184</v>
       </c>
       <c r="G71">
-        <v>3.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -8231,30 +8196,30 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>36.4</v>
+        <v>609.79999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D72">
+        <v>6.7</v>
+      </c>
+      <c r="E72">
         <v>11.3</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>10.8</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>3.8</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -8271,25 +8236,25 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="C73">
-        <v>62.2</v>
+        <v>2.8</v>
       </c>
       <c r="D73">
-        <v>110.7</v>
+        <v>11.3</v>
       </c>
       <c r="E73">
-        <v>175.4</v>
+        <v>10.8</v>
       </c>
       <c r="F73">
-        <v>177</v>
+        <v>3.8</v>
       </c>
       <c r="G73">
-        <v>73.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -8301,33 +8266,33 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>609.79999999999995</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>62.2</v>
       </c>
       <c r="D74">
-        <v>2.2999999999999998</v>
+        <v>110.7</v>
       </c>
       <c r="E74">
-        <v>4.5</v>
+        <v>175.4</v>
       </c>
       <c r="F74">
-        <v>4.5999999999999996</v>
+        <v>177</v>
       </c>
       <c r="G74">
-        <v>1.1000000000000001</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H74">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -8336,30 +8301,30 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>13.4</v>
+        <v>609.79999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>62.2</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>113</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E75">
-        <v>179.9</v>
+        <v>4.5</v>
       </c>
       <c r="F75">
-        <v>181.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G75">
-        <v>74.599999999999994</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H75">
         <v>0.9</v>
@@ -8371,16 +8336,51 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>623.20000000000005</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>62.2</v>
+      </c>
+      <c r="D76">
+        <v>113</v>
+      </c>
+      <c r="E76">
+        <v>179.9</v>
+      </c>
+      <c r="F76">
+        <v>181.6</v>
+      </c>
+      <c r="G76">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="H76">
+        <v>0.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>623.20000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>24</v>
       </c>
     </row>

--- a/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
+++ b/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
@@ -749,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,11 +783,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3607,12 +3612,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3857,12 +3862,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -4054,12 +4059,12 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -4275,12 +4280,12 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -4553,12 +4558,12 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -4771,12 +4776,12 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -5290,12 +5295,12 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
@@ -5553,12 +5558,12 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
@@ -5798,12 +5803,12 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
@@ -5971,12 +5976,12 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
@@ -6126,12 +6131,12 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
@@ -6314,12 +6319,12 @@
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
@@ -6616,12 +6621,12 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B192" s="14"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
@@ -6909,11 +6914,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A181:D181"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="E94:G94"/>
     <mergeCell ref="H94:J94"/>
@@ -6922,13 +6929,11 @@
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6939,13 +6944,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
@@ -6956,12 +6961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
+      <c r="A1" s="16">
         <v>35462</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="s">
@@ -6969,7 +6974,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B3" t="s">
@@ -6977,7 +6982,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7012,7 +7017,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>220</v>
       </c>
       <c r="B5">
@@ -7047,12 +7052,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7087,7 +7092,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B8">
@@ -7122,12 +7127,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="16">
         <v>35827</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B11" t="s">
@@ -7135,7 +7140,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B12" t="s">
@@ -7143,7 +7148,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7175,7 +7180,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>203</v>
       </c>
       <c r="B14">
@@ -7207,12 +7212,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -7245,7 +7250,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B17">
@@ -7277,12 +7282,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="16">
         <v>36192</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B20" t="s">
@@ -7290,7 +7295,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>214</v>
       </c>
       <c r="B21" t="s">
@@ -7298,7 +7303,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -7333,7 +7338,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B23">
@@ -7368,12 +7373,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -7408,7 +7413,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B26">
@@ -7443,12 +7448,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="16">
         <v>36557</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B29" t="s">
@@ -7456,7 +7461,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B30" t="s">
@@ -7464,7 +7469,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -7496,7 +7501,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="18" t="s">
         <v>203</v>
       </c>
       <c r="B32">
@@ -7528,12 +7533,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -7568,7 +7573,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B36">
@@ -7603,12 +7608,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="16">
         <v>37043</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B39" t="s">
@@ -7616,7 +7621,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B40" t="s">
@@ -7624,7 +7629,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B41" t="s">
@@ -7659,7 +7664,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="18" t="s">
         <v>197</v>
       </c>
       <c r="B42">
@@ -7694,12 +7699,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B44" t="s">
@@ -7734,7 +7739,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B45">
@@ -7769,12 +7774,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="16">
         <v>37288</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B48" t="s">
@@ -7782,7 +7787,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B49" t="s">
@@ -7790,7 +7795,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -7822,7 +7827,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="18" t="s">
         <v>197</v>
       </c>
       <c r="B51">
@@ -7854,12 +7859,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -7891,7 +7896,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B54">
@@ -7923,12 +7928,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="A57" s="16">
         <v>37653</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B58" t="s">
@@ -7936,7 +7941,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B59" t="s">
@@ -7944,7 +7949,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -7979,7 +7984,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="18" t="s">
         <v>197</v>
       </c>
       <c r="B61">
@@ -8014,12 +8019,12 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="18" t="s">
         <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -8054,7 +8059,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B64">
@@ -8089,12 +8094,12 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
+      <c r="A66" s="16">
         <v>38018</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B67" t="s">
@@ -8102,7 +8107,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="18" t="s">
         <v>210</v>
       </c>
       <c r="B68" t="s">
@@ -8142,7 +8147,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C70">
@@ -8165,7 +8170,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B71">
@@ -8200,7 +8205,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B72">
@@ -8235,7 +8240,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B73">
@@ -8270,7 +8275,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B74">
@@ -8305,7 +8310,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B75">
@@ -8340,7 +8345,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B76">
@@ -8375,12 +8380,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="18" t="s">
         <v>24</v>
       </c>
     </row>

--- a/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
+++ b/FOIA SAR data/LW155 M777/All Docs_M777 Data Draw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="10560" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="10560" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All Years_vol2.summary" sheetId="1" r:id="rId1"/>
@@ -779,20 +779,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,11 +1131,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3582,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,12 +3612,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3711,716 +3711,681 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17">
-        <v>582</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>116.364</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="H18">
+        <v>582</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>116.364</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21">
-        <v>525</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>31</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>32</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>45</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>64</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K28" t="s">
         <v>65</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>33</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M28" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>47</v>
-      </c>
-      <c r="J28">
-        <v>40</v>
-      </c>
-      <c r="K28">
-        <v>89</v>
-      </c>
-      <c r="L28">
-        <v>87</v>
-      </c>
-      <c r="M28">
-        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>1.1000000000000001</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>58.3</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>139.1</v>
+        <v>89</v>
       </c>
       <c r="L29">
-        <v>138.5</v>
+        <v>87</v>
       </c>
       <c r="M29">
-        <v>462.1</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H30">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>58.3</v>
+      </c>
+      <c r="J30">
+        <v>104</v>
+      </c>
+      <c r="K30">
+        <v>139.1</v>
+      </c>
+      <c r="L30">
+        <v>138.5</v>
+      </c>
+      <c r="M30">
+        <v>462.1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H32">
-        <v>21</v>
-      </c>
-      <c r="I32">
-        <v>58.3</v>
-      </c>
-      <c r="J32">
-        <v>104</v>
-      </c>
-      <c r="K32">
-        <v>139.1</v>
-      </c>
-      <c r="L32">
-        <v>138.5</v>
-      </c>
-      <c r="M32">
-        <v>462.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H33">
         <v>21</v>
+      </c>
+      <c r="I33">
+        <v>58.3</v>
+      </c>
+      <c r="J33">
+        <v>104</v>
+      </c>
+      <c r="K33">
+        <v>139.1</v>
+      </c>
+      <c r="L33">
+        <v>138.5</v>
+      </c>
+      <c r="M33">
+        <v>462.1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H34">
         <v>21</v>
-      </c>
-      <c r="I34">
-        <v>58.3</v>
-      </c>
-      <c r="J34">
-        <v>104</v>
-      </c>
-      <c r="K34">
-        <v>139.1</v>
-      </c>
-      <c r="L34">
-        <v>138.5</v>
-      </c>
-      <c r="M34">
-        <v>462.1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H35">
+        <v>21</v>
+      </c>
+      <c r="I35">
+        <v>58.3</v>
+      </c>
+      <c r="J35">
+        <v>104</v>
+      </c>
+      <c r="K35">
+        <v>139.1</v>
+      </c>
+      <c r="L35">
+        <v>138.5</v>
+      </c>
+      <c r="M35">
+        <v>462.1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>87</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>2.1</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>1.2</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>2.6</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>1.6</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>32</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>45</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>64</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>65</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>104</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K42" t="s">
         <v>105</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L42" t="s">
         <v>33</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42">
-        <v>28</v>
-      </c>
-      <c r="H42">
-        <v>56</v>
-      </c>
-      <c r="I42">
-        <v>88</v>
-      </c>
-      <c r="J42">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>23</v>
-      </c>
-      <c r="L42">
-        <v>40</v>
-      </c>
-      <c r="M42">
-        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>51.1</v>
+        <v>28</v>
       </c>
       <c r="H43">
-        <v>100.7</v>
+        <v>56</v>
       </c>
       <c r="I43">
-        <v>135.80000000000001</v>
+        <v>88</v>
       </c>
       <c r="J43">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>33.6</v>
+        <v>23</v>
       </c>
       <c r="L43">
-        <v>74.3</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>460.7</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>51.1</v>
+      </c>
+      <c r="H44">
+        <v>100.7</v>
+      </c>
+      <c r="I44">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="J44">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>33.6</v>
+      </c>
+      <c r="L44">
+        <v>74.3</v>
+      </c>
+      <c r="M44">
+        <v>460.7</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <v>51.1</v>
-      </c>
-      <c r="H46">
-        <v>100.7</v>
-      </c>
-      <c r="I46">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="J46">
-        <v>59</v>
-      </c>
-      <c r="K46">
-        <v>33.6</v>
-      </c>
-      <c r="L46">
-        <v>74.3</v>
-      </c>
-      <c r="M46">
-        <v>460.7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>51.1</v>
+      </c>
+      <c r="H47">
+        <v>100.7</v>
+      </c>
+      <c r="I47">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="J47">
+        <v>59</v>
+      </c>
+      <c r="K47">
+        <v>33.6</v>
+      </c>
+      <c r="L47">
+        <v>74.3</v>
+      </c>
+      <c r="M47">
+        <v>460.7</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48">
-        <v>51.1</v>
-      </c>
-      <c r="H48">
-        <v>100.7</v>
-      </c>
-      <c r="I48">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="J48">
-        <v>59</v>
-      </c>
-      <c r="K48">
-        <v>33.6</v>
-      </c>
-      <c r="L48">
-        <v>74.3</v>
-      </c>
-      <c r="M48">
-        <v>460.7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>51.1</v>
+      </c>
+      <c r="H49">
+        <v>100.7</v>
+      </c>
+      <c r="I49">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="J49">
+        <v>59</v>
+      </c>
+      <c r="K49">
+        <v>33.6</v>
+      </c>
+      <c r="L49">
+        <v>74.3</v>
+      </c>
+      <c r="M49">
+        <v>460.7</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>87</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>1.8</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>1.8</v>
       </c>
-      <c r="I50">
+      <c r="I51">
         <v>1.5</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>1.6</v>
       </c>
-      <c r="K50">
+      <c r="K51">
         <v>1.5</v>
       </c>
-      <c r="L50">
+      <c r="L51">
         <v>1.9</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>84</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>29</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>30</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>31</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>32</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>45</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>64</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I56" t="s">
         <v>65</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J56" t="s">
         <v>104</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K56" t="s">
         <v>105</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L56" t="s">
         <v>33</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M56" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56">
-        <v>18</v>
-      </c>
-      <c r="H56">
-        <v>18</v>
-      </c>
-      <c r="I56">
-        <v>72</v>
-      </c>
-      <c r="J56">
-        <v>125</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>40</v>
-      </c>
-      <c r="M56">
-        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F57">
-        <v>7.9</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>37.200000000000003</v>
+        <v>18</v>
       </c>
       <c r="H57">
-        <v>46.8</v>
+        <v>18</v>
       </c>
       <c r="I57">
-        <v>128.30000000000001</v>
+        <v>72</v>
       </c>
       <c r="J57">
-        <v>191.5</v>
+        <v>125</v>
       </c>
       <c r="K57">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>65.2</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>481.6</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>191.5</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="L58">
+        <v>65.2</v>
+      </c>
+      <c r="M58">
+        <v>481.6</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4455,217 +4420,244 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>37.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>128.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>191.5</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
-      </c>
-      <c r="L60">
-        <v>65.2</v>
-      </c>
-      <c r="M60">
-        <v>481.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="D61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F61">
+        <v>7.9</v>
+      </c>
+      <c r="G61">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H61">
+        <v>46.8</v>
+      </c>
+      <c r="I61">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="J61">
+        <v>191.5</v>
+      </c>
+      <c r="K61">
+        <v>3.5</v>
+      </c>
+      <c r="L61">
+        <v>65.2</v>
+      </c>
+      <c r="M61">
+        <v>481.6</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F62">
-        <v>7.9</v>
-      </c>
-      <c r="G62">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="H62">
-        <v>46.8</v>
-      </c>
-      <c r="I62">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="J62">
-        <v>191.5</v>
-      </c>
-      <c r="K62">
-        <v>3.5</v>
-      </c>
-      <c r="L62">
-        <v>65.2</v>
-      </c>
-      <c r="M62">
-        <v>481.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F63">
+        <v>7.9</v>
+      </c>
+      <c r="G63">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H63">
+        <v>46.8</v>
+      </c>
+      <c r="I63">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="J63">
+        <v>191.5</v>
+      </c>
+      <c r="K63">
+        <v>3.5</v>
+      </c>
+      <c r="L63">
+        <v>65.2</v>
+      </c>
+      <c r="M63">
+        <v>481.6</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>87</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>2.1</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>2.6</v>
       </c>
-      <c r="I64">
+      <c r="I65">
         <v>1.8</v>
       </c>
-      <c r="J64">
+      <c r="J65">
         <v>1.5</v>
       </c>
-      <c r="L64">
+      <c r="L65">
         <v>1.6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>84</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>31</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>32</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>45</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>64</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>65</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H70" t="s">
         <v>104</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I70" t="s">
         <v>105</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J70" t="s">
         <v>112</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K70" t="s">
         <v>113</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L70" t="s">
         <v>33</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M70" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70">
-        <v>19</v>
-      </c>
-      <c r="G70">
-        <v>73</v>
-      </c>
-      <c r="H70">
-        <v>125</v>
-      </c>
-      <c r="L70">
-        <v>40</v>
-      </c>
-      <c r="M70">
-        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D71">
-        <v>7.9</v>
-      </c>
-      <c r="E71">
-        <v>37.1</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>46.8</v>
+        <v>19</v>
       </c>
       <c r="G71">
-        <v>155.9</v>
+        <v>73</v>
       </c>
       <c r="H71">
-        <v>253.5</v>
-      </c>
-      <c r="I71">
-        <v>7.1</v>
+        <v>125</v>
       </c>
       <c r="L71">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="M71">
-        <v>601.4</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D72">
+        <v>7.9</v>
+      </c>
+      <c r="E72">
+        <v>37.1</v>
+      </c>
+      <c r="F72">
+        <v>46.8</v>
+      </c>
+      <c r="G72">
+        <v>155.9</v>
+      </c>
+      <c r="H72">
+        <v>253.5</v>
+      </c>
+      <c r="I72">
+        <v>7.1</v>
+      </c>
+      <c r="L72">
+        <v>92</v>
+      </c>
+      <c r="M72">
+        <v>601.4</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4673,1750 +4665,1717 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D74">
-        <v>7.9</v>
-      </c>
-      <c r="E74">
-        <v>37.1</v>
-      </c>
-      <c r="F74">
-        <v>46.8</v>
-      </c>
-      <c r="G74">
-        <v>155.9</v>
-      </c>
-      <c r="H74">
-        <v>253.5</v>
-      </c>
-      <c r="I74">
-        <v>7.1</v>
-      </c>
-      <c r="L74">
-        <v>92</v>
-      </c>
-      <c r="M74">
-        <v>601.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D75">
+        <v>7.9</v>
+      </c>
+      <c r="E75">
+        <v>37.1</v>
+      </c>
+      <c r="F75">
+        <v>46.8</v>
+      </c>
+      <c r="G75">
+        <v>155.9</v>
+      </c>
+      <c r="H75">
+        <v>253.5</v>
+      </c>
+      <c r="I75">
+        <v>7.1</v>
+      </c>
+      <c r="L75">
+        <v>92</v>
+      </c>
+      <c r="M75">
+        <v>601.4</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D76">
-        <v>7.9</v>
-      </c>
-      <c r="E76">
-        <v>37.1</v>
-      </c>
-      <c r="F76">
-        <v>46.8</v>
-      </c>
-      <c r="G76">
-        <v>155.9</v>
-      </c>
-      <c r="H76">
-        <v>253.5</v>
-      </c>
-      <c r="I76">
-        <v>7.1</v>
-      </c>
-      <c r="L76">
-        <v>92</v>
-      </c>
-      <c r="M76">
-        <v>601.4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D77">
+        <v>7.9</v>
+      </c>
+      <c r="E77">
+        <v>37.1</v>
+      </c>
+      <c r="F77">
+        <v>46.8</v>
+      </c>
+      <c r="G77">
+        <v>155.9</v>
+      </c>
+      <c r="H77">
+        <v>253.5</v>
+      </c>
+      <c r="I77">
+        <v>7.1</v>
+      </c>
+      <c r="L77">
+        <v>92</v>
+      </c>
+      <c r="M77">
+        <v>601.4</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>2.5</v>
       </c>
-      <c r="G78">
+      <c r="G79">
         <v>2.1</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <v>2</v>
       </c>
-      <c r="L78">
+      <c r="L79">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>45</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>64</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>65</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>104</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>105</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H84" t="s">
         <v>112</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I84" t="s">
         <v>113</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J84" t="s">
         <v>33</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K84" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84">
-        <v>16</v>
-      </c>
-      <c r="D84">
-        <v>19</v>
-      </c>
-      <c r="E84">
-        <v>85</v>
-      </c>
-      <c r="F84">
-        <v>126</v>
-      </c>
-      <c r="J84">
-        <v>40</v>
-      </c>
-      <c r="K84">
-        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>47.5</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>187.5</v>
+        <v>85</v>
       </c>
       <c r="F85">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="G85">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="J85">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>647.70000000000005</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>47.5</v>
+      </c>
+      <c r="E86">
+        <v>187.5</v>
+      </c>
+      <c r="F86">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="J86">
+        <v>92</v>
+      </c>
+      <c r="K86">
+        <v>647.70000000000005</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>9</v>
-      </c>
-      <c r="C88">
-        <v>37</v>
-      </c>
-      <c r="D88">
-        <v>47.5</v>
-      </c>
-      <c r="E88">
-        <v>187.5</v>
-      </c>
-      <c r="F88">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="G88">
-        <v>7</v>
-      </c>
-      <c r="J88">
-        <v>92</v>
-      </c>
-      <c r="K88">
-        <v>647.70000000000005</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>37</v>
+      </c>
+      <c r="D89">
+        <v>47.5</v>
+      </c>
+      <c r="E89">
+        <v>187.5</v>
+      </c>
+      <c r="F89">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>92</v>
+      </c>
+      <c r="K89">
+        <v>647.70000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90">
-        <v>9</v>
-      </c>
-      <c r="C90">
-        <v>37</v>
-      </c>
-      <c r="D90">
-        <v>47.5</v>
-      </c>
-      <c r="E90">
-        <v>187.5</v>
-      </c>
-      <c r="F90">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="G90">
-        <v>7</v>
-      </c>
-      <c r="J90">
-        <v>92</v>
-      </c>
-      <c r="K90">
-        <v>647.70000000000005</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>37</v>
+      </c>
+      <c r="D91">
+        <v>47.5</v>
+      </c>
+      <c r="E91">
+        <v>187.5</v>
+      </c>
+      <c r="F91">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>92</v>
+      </c>
+      <c r="K91">
+        <v>647.70000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>2.5</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>2.1</v>
       </c>
-      <c r="J92">
+      <c r="J93">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K92">
+      <c r="K93">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B95" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13" t="s">
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13" t="s">
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K96" s="10"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="10"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="K97" s="10"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="10"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>118</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>874</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>19</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>46</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>3910</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>85</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>46</v>
       </c>
-      <c r="H97">
+      <c r="H98">
         <v>5796</v>
       </c>
-      <c r="I97">
+      <c r="I98">
         <v>126</v>
       </c>
-      <c r="J97">
+      <c r="J98">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>119</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>26816</v>
-      </c>
-      <c r="C98">
-        <v>16</v>
-      </c>
-      <c r="D98">
-        <v>1676</v>
-      </c>
-      <c r="E98">
-        <v>32300</v>
-      </c>
-      <c r="F98">
-        <v>19</v>
-      </c>
-      <c r="G98">
-        <v>1700</v>
-      </c>
-      <c r="H98">
-        <v>144500</v>
-      </c>
-      <c r="I98">
-        <v>85</v>
-      </c>
-      <c r="J98">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99">
-        <v>3280</v>
       </c>
       <c r="C99">
         <v>16</v>
       </c>
       <c r="D99">
-        <v>205</v>
+        <v>1676</v>
       </c>
       <c r="E99">
-        <v>3895</v>
+        <v>32300</v>
       </c>
       <c r="F99">
         <v>19</v>
       </c>
       <c r="G99">
-        <v>205</v>
+        <v>1700</v>
       </c>
       <c r="H99">
-        <v>17425</v>
+        <v>144500</v>
       </c>
       <c r="I99">
         <v>85</v>
       </c>
       <c r="J99">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100">
-        <v>288</v>
+        <v>3280</v>
       </c>
       <c r="C100">
         <v>16</v>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="E100">
-        <v>342</v>
+        <v>3895</v>
       </c>
       <c r="F100">
         <v>19</v>
       </c>
       <c r="G100">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="H100">
-        <v>1530</v>
+        <v>17425</v>
       </c>
       <c r="I100">
         <v>85</v>
       </c>
       <c r="J100">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101">
-        <v>640</v>
+        <v>288</v>
       </c>
       <c r="C101">
         <v>16</v>
       </c>
       <c r="D101">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>760</v>
+        <v>342</v>
       </c>
       <c r="F101">
         <v>19</v>
       </c>
       <c r="G101">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H101">
-        <v>3400</v>
+        <v>1530</v>
       </c>
       <c r="I101">
         <v>85</v>
       </c>
       <c r="J101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102">
+        <v>640</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="E102">
+        <v>760</v>
+      </c>
+      <c r="F102">
+        <v>19</v>
+      </c>
+      <c r="G102">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>3400</v>
+      </c>
+      <c r="I102">
+        <v>85</v>
+      </c>
+      <c r="J102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>123</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>200</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>228</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>2150</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>125</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>4239</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>4966</v>
       </c>
-      <c r="H104">
+      <c r="H105">
         <v>8288</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>126</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>200</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>500</v>
       </c>
-      <c r="H105">
+      <c r="H106">
         <v>2100</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>127</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>500</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>600</v>
       </c>
-      <c r="H106">
+      <c r="H107">
         <v>2300</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>128</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>37037</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>84</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>64</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>65</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>104</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>105</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>112</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>113</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I113" t="s">
         <v>130</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J113" t="s">
         <v>131</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K113" t="s">
         <v>33</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L113" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113">
-        <v>16</v>
-      </c>
-      <c r="C113">
-        <v>19</v>
-      </c>
-      <c r="D113">
-        <v>78</v>
-      </c>
-      <c r="E113">
-        <v>126</v>
-      </c>
-      <c r="F113">
-        <v>13</v>
-      </c>
-      <c r="G113">
-        <v>13</v>
-      </c>
-      <c r="H113">
-        <v>12</v>
-      </c>
-      <c r="I113">
-        <v>16</v>
-      </c>
-      <c r="J113">
-        <v>17</v>
-      </c>
-      <c r="K113">
-        <v>18</v>
-      </c>
-      <c r="L113">
-        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>78</v>
+      </c>
+      <c r="E114">
+        <v>126</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>13</v>
+      </c>
+      <c r="H114">
+        <v>12</v>
+      </c>
+      <c r="I114">
+        <v>16</v>
+      </c>
+      <c r="J114">
         <v>17</v>
       </c>
-      <c r="B114">
-        <v>46.1</v>
-      </c>
-      <c r="C114">
-        <v>50</v>
-      </c>
-      <c r="D114">
-        <v>172.2</v>
-      </c>
-      <c r="E114">
-        <v>270.3</v>
-      </c>
-      <c r="F114">
-        <v>44.2</v>
-      </c>
-      <c r="G114">
-        <v>38.4</v>
-      </c>
-      <c r="H114">
-        <v>36.1</v>
-      </c>
-      <c r="I114">
-        <v>47.1</v>
-      </c>
-      <c r="J114">
-        <v>47.1</v>
-      </c>
       <c r="K114">
-        <v>72.099999999999994</v>
+        <v>18</v>
       </c>
       <c r="L114">
-        <v>823.5</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>46.1</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>172.2</v>
+      </c>
+      <c r="E115">
+        <v>270.3</v>
+      </c>
+      <c r="F115">
+        <v>44.2</v>
+      </c>
+      <c r="G115">
+        <v>38.4</v>
+      </c>
+      <c r="H115">
+        <v>36.1</v>
+      </c>
+      <c r="I115">
+        <v>47.1</v>
+      </c>
+      <c r="J115">
+        <v>47.1</v>
+      </c>
+      <c r="K115">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="L115">
+        <v>823.5</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>86</v>
-      </c>
-      <c r="B117">
-        <v>46.1</v>
-      </c>
-      <c r="C117">
-        <v>50</v>
-      </c>
-      <c r="D117">
-        <v>172.2</v>
-      </c>
-      <c r="E117">
-        <v>270.3</v>
-      </c>
-      <c r="F117">
-        <v>44.2</v>
-      </c>
-      <c r="G117">
-        <v>38.4</v>
-      </c>
-      <c r="H117">
-        <v>36.1</v>
-      </c>
-      <c r="I117">
-        <v>47.1</v>
-      </c>
-      <c r="J117">
-        <v>47.1</v>
-      </c>
-      <c r="K117">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="L117">
-        <v>823.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B118">
+        <v>46.1</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+      <c r="D118">
+        <v>172.2</v>
+      </c>
+      <c r="E118">
+        <v>270.3</v>
+      </c>
+      <c r="F118">
+        <v>44.2</v>
+      </c>
+      <c r="G118">
+        <v>38.4</v>
+      </c>
+      <c r="H118">
+        <v>36.1</v>
+      </c>
+      <c r="I118">
+        <v>47.1</v>
+      </c>
+      <c r="J118">
+        <v>47.1</v>
+      </c>
+      <c r="K118">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="L118">
+        <v>823.5</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>22</v>
-      </c>
-      <c r="B119">
-        <v>46.1</v>
-      </c>
-      <c r="C119">
-        <v>50</v>
-      </c>
-      <c r="D119">
-        <v>172.2</v>
-      </c>
-      <c r="E119">
-        <v>270.3</v>
-      </c>
-      <c r="F119">
-        <v>44.2</v>
-      </c>
-      <c r="G119">
-        <v>38.4</v>
-      </c>
-      <c r="H119">
-        <v>36.1</v>
-      </c>
-      <c r="I119">
-        <v>47.1</v>
-      </c>
-      <c r="J119">
-        <v>47.1</v>
-      </c>
-      <c r="K119">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="L119">
-        <v>823.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>46.1</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>172.2</v>
+      </c>
+      <c r="E120">
+        <v>270.3</v>
+      </c>
+      <c r="F120">
+        <v>44.2</v>
+      </c>
+      <c r="G120">
+        <v>38.4</v>
+      </c>
+      <c r="H120">
+        <v>36.1</v>
+      </c>
+      <c r="I120">
+        <v>47.1</v>
+      </c>
+      <c r="J120">
+        <v>47.1</v>
+      </c>
+      <c r="K120">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="L120">
+        <v>823.5</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>87</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>2.9</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>2.6</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>2.1</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>3.4</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <v>3</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>3</v>
       </c>
-      <c r="I121">
+      <c r="I122">
         <v>2.9</v>
       </c>
-      <c r="J121">
+      <c r="J122">
         <v>2.8</v>
       </c>
-      <c r="K121">
+      <c r="K122">
         <v>4</v>
       </c>
-      <c r="L121">
+      <c r="L122">
         <v>28.9</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>84</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>65</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>104</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>105</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>112</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G127" t="s">
         <v>113</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H127" t="s">
         <v>130</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I127" t="s">
         <v>131</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J127" t="s">
         <v>33</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K127" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127">
-        <v>35</v>
-      </c>
-      <c r="C127">
-        <v>78</v>
-      </c>
-      <c r="D127">
-        <v>185</v>
-      </c>
-      <c r="E127">
-        <v>38</v>
-      </c>
-      <c r="F127">
-        <v>13</v>
-      </c>
-      <c r="G127">
-        <v>12</v>
-      </c>
-      <c r="H127">
-        <v>16</v>
-      </c>
-      <c r="I127">
-        <v>17</v>
-      </c>
-      <c r="J127">
-        <v>40</v>
-      </c>
-      <c r="K127">
-        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>78</v>
+      </c>
+      <c r="D128">
+        <v>185</v>
+      </c>
+      <c r="E128">
+        <v>38</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128">
+        <v>12</v>
+      </c>
+      <c r="H128">
+        <v>16</v>
+      </c>
+      <c r="I128">
         <v>17</v>
       </c>
-      <c r="B128">
-        <v>95</v>
-      </c>
-      <c r="C128">
-        <v>172.2</v>
-      </c>
-      <c r="D128">
-        <v>411</v>
-      </c>
-      <c r="E128">
-        <v>113.2</v>
-      </c>
-      <c r="F128">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G128">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H128">
-        <v>46.7</v>
-      </c>
-      <c r="I128">
-        <v>46.7</v>
-      </c>
       <c r="J128">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K128">
-        <v>1051.5999999999999</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>95</v>
+      </c>
+      <c r="C129">
+        <v>172.2</v>
+      </c>
+      <c r="D129">
+        <v>411</v>
+      </c>
+      <c r="E129">
+        <v>113.2</v>
+      </c>
+      <c r="F129">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G129">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H129">
+        <v>46.7</v>
+      </c>
+      <c r="I129">
+        <v>46.7</v>
+      </c>
+      <c r="J129">
+        <v>92</v>
+      </c>
+      <c r="K129">
+        <v>1051.5999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>86</v>
-      </c>
-      <c r="B131">
-        <v>95</v>
-      </c>
-      <c r="C131">
-        <v>172.2</v>
-      </c>
-      <c r="D131">
-        <v>411</v>
-      </c>
-      <c r="E131">
-        <v>113.2</v>
-      </c>
-      <c r="F131">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G131">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H131">
-        <v>46.7</v>
-      </c>
-      <c r="I131">
-        <v>46.7</v>
-      </c>
-      <c r="J131">
-        <v>92</v>
-      </c>
-      <c r="K131">
-        <v>1051.5999999999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B132">
+        <v>95</v>
+      </c>
+      <c r="C132">
+        <v>172.2</v>
+      </c>
+      <c r="D132">
+        <v>411</v>
+      </c>
+      <c r="E132">
+        <v>113.2</v>
+      </c>
+      <c r="F132">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G132">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H132">
+        <v>46.7</v>
+      </c>
+      <c r="I132">
+        <v>46.7</v>
+      </c>
+      <c r="J132">
+        <v>92</v>
+      </c>
+      <c r="K132">
+        <v>1051.5999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133">
-        <v>95</v>
-      </c>
-      <c r="C133">
-        <v>172.2</v>
-      </c>
-      <c r="D133">
-        <v>411</v>
-      </c>
-      <c r="E133">
-        <v>113.2</v>
-      </c>
-      <c r="F133">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G133">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H133">
-        <v>46.7</v>
-      </c>
-      <c r="I133">
-        <v>46.7</v>
-      </c>
-      <c r="J133">
-        <v>92</v>
-      </c>
-      <c r="K133">
-        <v>1051.5999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>95</v>
+      </c>
+      <c r="C134">
+        <v>172.2</v>
+      </c>
+      <c r="D134">
+        <v>411</v>
+      </c>
+      <c r="E134">
+        <v>113.2</v>
+      </c>
+      <c r="F134">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G134">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H134">
+        <v>46.7</v>
+      </c>
+      <c r="I134">
+        <v>46.7</v>
+      </c>
+      <c r="J134">
+        <v>92</v>
+      </c>
+      <c r="K134">
+        <v>1051.5999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>87</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>2.7</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <v>3</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>2.9</v>
       </c>
-      <c r="G135">
+      <c r="G136">
         <v>3</v>
       </c>
-      <c r="H135">
+      <c r="H136">
         <v>2.9</v>
       </c>
-      <c r="I135">
+      <c r="I136">
         <v>2.7</v>
       </c>
-      <c r="J135">
+      <c r="J136">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K135">
+      <c r="K136">
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>84</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>104</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>105</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E141" t="s">
         <v>112</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>33</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G141" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141">
-        <v>113</v>
-      </c>
-      <c r="C141">
-        <v>185</v>
-      </c>
-      <c r="D141">
-        <v>38</v>
-      </c>
-      <c r="E141">
-        <v>13</v>
-      </c>
-      <c r="G141">
-        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142">
-        <v>268.2</v>
+        <v>113</v>
       </c>
       <c r="C142">
-        <v>470.6</v>
+        <v>185</v>
       </c>
       <c r="D142">
-        <v>112.9</v>
+        <v>38</v>
       </c>
       <c r="E142">
-        <v>157.6</v>
+        <v>13</v>
       </c>
       <c r="G142">
-        <v>1009.2</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>268.2</v>
+      </c>
+      <c r="C143">
+        <v>470.6</v>
+      </c>
+      <c r="D143">
+        <v>112.9</v>
+      </c>
+      <c r="E143">
+        <v>157.6</v>
+      </c>
+      <c r="G143">
+        <v>1009.2</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145">
-        <v>268.2</v>
-      </c>
-      <c r="C145">
-        <v>470.6</v>
-      </c>
-      <c r="D145">
-        <v>112.9</v>
-      </c>
-      <c r="E145">
-        <v>157.6</v>
-      </c>
-      <c r="G145">
-        <v>1009.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B146">
+        <v>268.2</v>
+      </c>
+      <c r="C146">
+        <v>470.6</v>
+      </c>
+      <c r="D146">
+        <v>112.9</v>
+      </c>
+      <c r="E146">
+        <v>157.6</v>
+      </c>
+      <c r="G146">
+        <v>1009.2</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>22</v>
-      </c>
-      <c r="B147">
-        <v>268.2</v>
-      </c>
-      <c r="C147">
-        <v>470.6</v>
-      </c>
-      <c r="D147">
-        <v>112.9</v>
-      </c>
-      <c r="E147">
-        <v>157.6</v>
-      </c>
-      <c r="G147">
-        <v>1009.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>268.2</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>470.6</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>112.9</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>157.6</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1009.2</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>87</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>2.4</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D149">
+      <c r="D150">
         <v>3</v>
       </c>
-      <c r="E149">
+      <c r="E150">
         <v>3</v>
       </c>
-      <c r="G149">
+      <c r="G150">
         <v>10.6</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>84</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>105</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>112</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E155" t="s">
         <v>113</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F155" t="s">
         <v>130</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G155" t="s">
         <v>131</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H155" t="s">
         <v>132</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I155" t="s">
         <v>133</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J155" t="s">
         <v>33</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K155" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>16</v>
-      </c>
-      <c r="B155">
-        <v>316</v>
-      </c>
-      <c r="C155">
-        <v>38</v>
-      </c>
-      <c r="D155">
-        <v>13</v>
-      </c>
-      <c r="E155">
-        <v>14</v>
-      </c>
-      <c r="K155">
-        <v>421</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B156">
-        <v>733.1</v>
+        <v>316</v>
       </c>
       <c r="C156">
-        <v>120.9</v>
+        <v>38</v>
       </c>
       <c r="D156">
-        <v>157.4</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="K156">
-        <v>1073.3</v>
+        <v>421</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B157">
+        <v>733.1</v>
+      </c>
+      <c r="C157">
+        <v>120.9</v>
+      </c>
+      <c r="D157">
+        <v>157.4</v>
+      </c>
+      <c r="E157">
+        <v>62</v>
+      </c>
+      <c r="K157">
+        <v>1073.3</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>86</v>
-      </c>
-      <c r="B159">
-        <v>733.1</v>
-      </c>
-      <c r="C159">
-        <v>120.9</v>
-      </c>
-      <c r="D159">
-        <v>157.4</v>
-      </c>
-      <c r="E159">
-        <v>62</v>
-      </c>
-      <c r="K159">
-        <v>1073.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B160">
+        <v>733.1</v>
+      </c>
+      <c r="C160">
+        <v>120.9</v>
+      </c>
+      <c r="D160">
+        <v>157.4</v>
+      </c>
+      <c r="E160">
+        <v>62</v>
+      </c>
+      <c r="K160">
+        <v>1073.3</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>22</v>
-      </c>
-      <c r="B161">
-        <v>733.1</v>
-      </c>
-      <c r="C161">
-        <v>120.9</v>
-      </c>
-      <c r="D161">
-        <v>157.4</v>
-      </c>
-      <c r="E161">
-        <v>62</v>
-      </c>
-      <c r="K161">
-        <v>1073.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B162">
+        <v>733.1</v>
+      </c>
+      <c r="C162">
+        <v>120.9</v>
+      </c>
+      <c r="D162">
+        <v>157.4</v>
+      </c>
+      <c r="E162">
+        <v>62</v>
+      </c>
+      <c r="K162">
+        <v>1073.3</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>84</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>112</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>113</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E169" t="s">
         <v>135</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F169" t="s">
         <v>134</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G169" t="s">
         <v>136</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H169" t="s">
         <v>131</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I169" t="s">
         <v>132</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J169" t="s">
         <v>133</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K169" t="s">
         <v>137</v>
       </c>
-      <c r="L168" t="s">
+      <c r="L169" t="s">
         <v>33</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M169" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>16</v>
-      </c>
-      <c r="B169">
-        <v>354</v>
-      </c>
-      <c r="C169">
-        <v>53</v>
-      </c>
-      <c r="D169">
-        <v>14</v>
-      </c>
-      <c r="M169">
-        <v>421</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>852</v>
+        <v>354</v>
       </c>
       <c r="C170">
-        <v>157.4</v>
+        <v>53</v>
       </c>
       <c r="D170">
-        <v>62</v>
-      </c>
-      <c r="E170">
-        <v>13.1</v>
-      </c>
-      <c r="G170">
-        <v>13.1</v>
-      </c>
-      <c r="H170">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="M170">
-        <v>1098.0999999999999</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>852</v>
+      </c>
+      <c r="C171">
+        <v>157.4</v>
+      </c>
+      <c r="D171">
+        <v>62</v>
+      </c>
+      <c r="E171">
+        <v>13.1</v>
+      </c>
+      <c r="G171">
+        <v>13.1</v>
+      </c>
+      <c r="H171">
+        <v>13.7</v>
+      </c>
+      <c r="M171">
+        <v>1098.0999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>86</v>
-      </c>
-      <c r="B173">
-        <v>852</v>
-      </c>
-      <c r="C173">
-        <v>157.4</v>
-      </c>
-      <c r="D173">
-        <v>62</v>
-      </c>
-      <c r="E173">
-        <v>13.1</v>
-      </c>
-      <c r="G173">
-        <v>13.1</v>
-      </c>
-      <c r="H173">
-        <v>13.7</v>
-      </c>
-      <c r="M173">
-        <v>1098.0999999999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="B174">
+        <v>852</v>
+      </c>
+      <c r="C174">
+        <v>157.4</v>
+      </c>
+      <c r="D174">
+        <v>62</v>
+      </c>
+      <c r="E174">
+        <v>13.1</v>
+      </c>
+      <c r="G174">
+        <v>13.1</v>
+      </c>
+      <c r="H174">
+        <v>13.7</v>
+      </c>
+      <c r="M174">
+        <v>1098.0999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>22</v>
-      </c>
-      <c r="B175">
-        <v>852</v>
-      </c>
-      <c r="C175">
-        <v>157.4</v>
-      </c>
-      <c r="D175">
-        <v>62</v>
-      </c>
-      <c r="E175">
-        <v>13.1</v>
-      </c>
-      <c r="G175">
-        <v>13.1</v>
-      </c>
-      <c r="H175">
-        <v>13.7</v>
-      </c>
-      <c r="M175">
-        <v>1098.0999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B176">
+        <v>852</v>
+      </c>
+      <c r="C176">
+        <v>157.4</v>
+      </c>
+      <c r="D176">
+        <v>62</v>
+      </c>
+      <c r="E176">
+        <v>13.1</v>
+      </c>
+      <c r="G176">
+        <v>13.1</v>
+      </c>
+      <c r="H176">
+        <v>13.7</v>
+      </c>
+      <c r="M176">
+        <v>1098.0999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>87</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>2.4</v>
       </c>
-      <c r="C177">
+      <c r="C178">
         <v>3</v>
       </c>
-      <c r="D177">
+      <c r="D178">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M177">
+      <c r="M178">
         <v>2.6</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>84</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>130</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>131</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E183" t="s">
         <v>140</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>141</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G183" t="s">
         <v>142</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>143</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I183" t="s">
         <v>137</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J183" t="s">
         <v>144</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K183" t="s">
         <v>145</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L183" t="s">
         <v>33</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M183" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>16</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M183" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>138</v>
-      </c>
-      <c r="B184">
-        <v>1224.395</v>
-      </c>
-      <c r="C184">
-        <v>13.066000000000001</v>
-      </c>
-      <c r="D184">
-        <v>13.827</v>
+        <v>16</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>61</v>
@@ -6439,25 +6398,25 @@
       <c r="K184" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L184" t="s">
-        <v>51</v>
-      </c>
-      <c r="M184" t="s">
-        <v>51</v>
+      <c r="L184" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>18</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
+      </c>
+      <c r="B185">
+        <v>1224.395</v>
+      </c>
+      <c r="C185">
+        <v>13.066000000000001</v>
+      </c>
+      <c r="D185">
+        <v>13.827</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>61</v>
@@ -6480,25 +6439,25 @@
       <c r="K185" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L185" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M185" s="2" t="s">
-        <v>61</v>
+      <c r="L185" t="s">
+        <v>51</v>
+      </c>
+      <c r="M185" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>86</v>
-      </c>
-      <c r="B186">
-        <v>1224.395</v>
-      </c>
-      <c r="C186">
-        <v>13.066000000000001</v>
-      </c>
-      <c r="D186">
-        <v>13.827</v>
+        <v>18</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>61</v>
@@ -6521,25 +6480,25 @@
       <c r="K186" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L186" t="s">
-        <v>51</v>
-      </c>
-      <c r="M186" t="s">
-        <v>51</v>
+      <c r="L186" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>19</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="B187">
+        <v>1224.395</v>
+      </c>
+      <c r="C187">
+        <v>13.066000000000001</v>
+      </c>
+      <c r="D187">
+        <v>13.827</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>61</v>
@@ -6562,160 +6521,160 @@
       <c r="K187" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L187" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M187" s="2" t="s">
-        <v>61</v>
+      <c r="L187" t="s">
+        <v>51</v>
+      </c>
+      <c r="M187" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>139</v>
       </c>
-      <c r="B188">
+      <c r="B189">
         <v>1224.395</v>
       </c>
-      <c r="C188">
+      <c r="C189">
         <v>13.066000000000001</v>
       </c>
-      <c r="D188">
+      <c r="D189">
         <v>13.827</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="E189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L189" t="s">
         <v>51</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M189" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="15" t="s">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
         <v>84</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>131</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>132</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E194" t="s">
         <v>146</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F194" t="s">
         <v>147</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G194" t="s">
         <v>148</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H194" t="s">
         <v>137</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I194" t="s">
         <v>144</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J194" t="s">
         <v>145</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K194" t="s">
         <v>149</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L194" t="s">
         <v>33</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M194" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" s="2">
-        <v>545</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K194" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L194" t="s">
-        <v>51</v>
-      </c>
-      <c r="M194" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>138</v>
-      </c>
-      <c r="B195">
-        <v>29.36</v>
-      </c>
-      <c r="C195">
-        <v>12.581</v>
+        <v>16</v>
+      </c>
+      <c r="B195" s="2">
+        <v>545</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>61</v>
@@ -6750,13 +6709,13 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>18</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
+      </c>
+      <c r="B196">
+        <v>29.36</v>
+      </c>
+      <c r="C196">
+        <v>12.581</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>61</v>
@@ -6782,22 +6741,22 @@
       <c r="K196" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L196" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M196" s="2" t="s">
-        <v>61</v>
+      <c r="L196" t="s">
+        <v>51</v>
+      </c>
+      <c r="M196" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>86</v>
-      </c>
-      <c r="B197">
-        <v>29.36</v>
-      </c>
-      <c r="C197">
-        <v>12.581</v>
+        <v>18</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>61</v>
@@ -6823,22 +6782,22 @@
       <c r="K197" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L197" t="s">
-        <v>51</v>
-      </c>
-      <c r="M197" t="s">
-        <v>51</v>
+      <c r="L197" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="B198">
+        <v>29.36</v>
+      </c>
+      <c r="C198">
+        <v>12.581</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>61</v>
@@ -6864,76 +6823,117 @@
       <c r="K198" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L198" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M198" s="2" t="s">
-        <v>61</v>
+      <c r="L198" t="s">
+        <v>51</v>
+      </c>
+      <c r="M198" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>139</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <v>29.36</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <v>12.581</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K199" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L199" t="s">
+      <c r="D200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L200" t="s">
         <v>51</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M200" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A182:D182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6944,13 +6944,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
@@ -6961,12 +6961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
+      <c r="A1" s="13">
         <v>35462</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="s">
@@ -6974,7 +6974,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B3" t="s">
@@ -6982,7 +6982,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7017,7 +7017,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B5">
@@ -7052,12 +7052,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7092,7 +7092,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B8">
@@ -7127,12 +7127,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>35827</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B11" t="s">
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B12" t="s">
@@ -7148,7 +7148,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7180,7 +7180,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B14">
@@ -7212,12 +7212,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -7250,7 +7250,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B17">
@@ -7282,12 +7282,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="13">
         <v>36192</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B20" t="s">
@@ -7295,7 +7295,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B21" t="s">
@@ -7303,7 +7303,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -7338,7 +7338,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B23">
@@ -7373,12 +7373,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -7413,7 +7413,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B26">
@@ -7448,12 +7448,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="13">
         <v>36557</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B29" t="s">
@@ -7461,7 +7461,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B30" t="s">
@@ -7469,7 +7469,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -7501,7 +7501,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B32">
@@ -7533,12 +7533,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -7573,7 +7573,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B36">
@@ -7608,12 +7608,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="13">
         <v>37043</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B39" t="s">
@@ -7621,7 +7621,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B40" t="s">
@@ -7629,7 +7629,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B41" t="s">
@@ -7664,7 +7664,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B42">
@@ -7699,12 +7699,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B44" t="s">
@@ -7739,7 +7739,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B45">
@@ -7774,12 +7774,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="A47" s="13">
         <v>37288</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B48" t="s">
@@ -7787,7 +7787,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B49" t="s">
@@ -7795,7 +7795,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B51">
@@ -7859,12 +7859,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -7896,7 +7896,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B54">
@@ -7928,12 +7928,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="A57" s="13">
         <v>37653</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B58" t="s">
@@ -7941,7 +7941,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B59" t="s">
@@ -7949,7 +7949,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -7984,7 +7984,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B61">
@@ -8019,12 +8019,12 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -8059,7 +8059,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B64">
@@ -8094,12 +8094,12 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="A66" s="13">
         <v>38018</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B67" t="s">
@@ -8107,7 +8107,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B68" t="s">
@@ -8147,7 +8147,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C70">
@@ -8170,7 +8170,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B71">
@@ -8205,7 +8205,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B72">
@@ -8240,7 +8240,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B73">
@@ -8275,7 +8275,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B74">
@@ -8310,7 +8310,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B75">
@@ -8345,7 +8345,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B76">
@@ -8380,12 +8380,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="15" t="s">
         <v>24</v>
       </c>
     </row>
